--- a/biology/Zoologie/Civette_malgache/Civette_malgache.xlsx
+++ b/biology/Zoologie/Civette_malgache/Civette_malgache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fossa fossana
-La civette malgache (Fossa fossana), genette de Madagascar[1], civette fossane[2] ou civette de Madagascar, est une espèce de civette de la famille des Eupleridae.
+La civette malgache (Fossa fossana), genette de Madagascar, civette fossane ou civette de Madagascar, est une espèce de civette de la famille des Eupleridae.
 C'est la seule espèce du genre Fossa.
 Attention :
 Ne pas confondre le genre Fossa avec le fossa (Cryptoprocta ferox), l'autre mammifère carnivore de la même famille.
